--- a/bin/Debug/data.xlsx
+++ b/bin/Debug/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
 โดยมี 
@@ -77,6 +77,40 @@
 Chip: Macbook Air M1 
 Color: Midnight 
 ในราคา: 55000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
+โดยมี 
+cpu: Intel core I5 gen 10 
+ram: 8GB 
+disk: 1TB SSD 
+gpu:NVIDIA GeForce GTX 1650 
+ในราคา: 35000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณสั่งชื้อ MacBook Air 
+โดยมี 
+Chip: Macbook Air M2 
+Color: Midnight 
+ในราคา: 55000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณสั่งชื้อ Ipad air 5 
+โดยมี 
+Screen Size: 10.9Inch 
+Color: Starlight 
+Storage: 64GB 
+Connectivity: Wifi + Cellular 
+ในราคา: 19000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณสั่งชื้อ Ipad pro 11 inch 
+โดยมี 
+Screen Size: 12.9Inch 
+Color: Space Gray 
+Storage: 128GB 
+Connectivity: Wifi 
+ในราคา: 19000</t>
   </si>
 </sst>
 </file>
@@ -395,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -436,6 +470,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/bin/Debug/data.xlsx
+++ b/bin/Debug/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Workshop\Visual Studio\Final Project\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED27385-71A9-479D-915E-99BF3A54B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D919F16-E9EF-4B85-BAF1-EFDB361E97D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
 โดยมี 
@@ -36,54 +36,27 @@
 ในราคา: 35000</t>
   </si>
   <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
+    <t xml:space="preserve">คุณสั่งชื้อ Ipad pro 11 inch 
 โดยมี 
-cpu: Intel core I5 gen 10 
-ram: 16GB 
-disk: 512GB SSD 
-gpu:NVIDIA GeForce RTX 2060 
-ในราคา: 35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
-โดยมี 
-cpu: Intel core I5 gen 9 
-ram: 8GB 
-disk: 1TB SSD 
-gpu:NVIDIA GeForce GTX 1650 
-ในราคา: 35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Ipad air 5 
-โดยมี 
-Screen Size: 10.9Inch 
-Color: Space Gray 
-Storage: 64GB 
-Connectivity: Wifi 
+Screen Size: 11Inch 
+Color: Silver 
+Storage: 128GB 
+Connectivity: Wifi + Cellular 
 ในราคา: 19000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
-โดยมี 
-cpu: Intel core I5 gen 9 
-ram: 8GB 
-disk: 512GB SSD 
-gpu:NVIDIA GeForce GTX 1650 
-ในราคา: 35000</t>
   </si>
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ MacBook Air 
 โดยมี 
 Chip: Macbook Air M1 
-Color: Midnight 
+Color: Starlight 
 ในราคา: 55000</t>
   </si>
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
 โดยมี 
 cpu: Intel core I5 gen 10 
-ram: 8GB 
-disk: 1TB SSD 
+ram: 16GB 
+disk: 512GB SSD 
 gpu:NVIDIA GeForce GTX 1650 
 ในราคา: 35000</t>
   </si>
@@ -93,24 +66,6 @@
 Chip: Macbook Air M2 
 Color: Midnight 
 ในราคา: 55000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Ipad air 5 
-โดยมี 
-Screen Size: 10.9Inch 
-Color: Starlight 
-Storage: 64GB 
-Connectivity: Wifi + Cellular 
-ในราคา: 19000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ Ipad pro 11 inch 
-โดยมี 
-Screen Size: 12.9Inch 
-Color: Space Gray 
-Storage: 128GB 
-Connectivity: Wifi 
-ในราคา: 19000</t>
   </si>
 </sst>
 </file>
@@ -429,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,37 +412,17 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/data.xlsx
+++ b/bin/Debug/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Workshop\Visual Studio\Final Project\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D919F16-E9EF-4B85-BAF1-EFDB361E97D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6A7F1-8A29-4FB5-86A0-14423BF118DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,25 +47,25 @@
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ MacBook Air 
 โดยมี 
+Chip: Macbook Air M2 
+Color: Silver 
+ในราคา: 55000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณสั่งชื้อ MacBook Air 
+โดยมี 
 Chip: Macbook Air M1 
-Color: Starlight 
+Color: Midnight 
 ในราคา: 55000</t>
   </si>
   <si>
     <t xml:space="preserve">คุณสั่งชื้อ Asus Tuf Gaming F15 
 โดยมี 
-cpu: Intel core I5 gen 10 
-ram: 16GB 
+cpu: Intel core I5 gen 9 
+ram: 8GB 
 disk: 512GB SSD 
 gpu:NVIDIA GeForce GTX 1650 
 ในราคา: 35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณสั่งชื้อ MacBook Air 
-โดยมี 
-Chip: Macbook Air M2 
-Color: Midnight 
-ในราคา: 55000</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,12 +412,12 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
